--- a/01_Conditions/InphaseC4/flow_definitions.xlsx
+++ b/01_Conditions/InphaseC4/flow_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RiverArchitect-tutorial\01_Conditions\InphaseC4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F9DAA-8924-4B7A-B2A2-20DCD21E3780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04062BAA-DBAD-41A9-B9A0-FFDA2E0C9B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="1920" windowWidth="13425" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="2400" windowWidth="23550" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flows" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C5B-4B1B-9A55-02D42DD59512}"/>
+              <c16:uniqueId val="{00000000-41DA-4082-AEA7-5A539DE9B80A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1172,7 +1172,7 @@
   <dimension ref="B1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
